--- a/medicine/Enfance/Alain_Chiche/Alain_Chiche.xlsx
+++ b/medicine/Enfance/Alain_Chiche/Alain_Chiche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Chiche est un artiste français (né en 1966 à Issy-les-Moulineaux). Il est auteur et illustrateur de jeunesse. Alain Chiche est également peintre et musicien.
 </t>
@@ -511,13 +523,15 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après des études en arts graphiques, il commence sa carrière dans l’édition jeunesse en publiant un premier album en tant qu’illustrateur jeunesse en 1994 pour les Éditions Mango. Il travaille également en tant qu'affichiste et expose ses œuvres en peinture.
 En 1999, il écrit ses premiers textes pour la jeunesse qu'il illustre à L'École des loisirs ; c’est le début d’une longue série d’ouvrages, empreints d'humour, de tendresse et de malice. 
 Il a publié plus d'une soixantaine d’albums en France et à l'étranger aux éditions Le Sorbier, Le Seuil Jeunesse, Casterman, Gallimard Jeunesse, L'École des loisirs, Frimousse et Kaléidoscope.
 Alain Chiche est aussi musicien auteur-compositeur-interprète. Il s'exprime à travers la chanson, dans un registre musical de chanson française folk-blues ( Album De Bas en Haut )
-Il a  également créé un spectacle de conte musical pour enfants, l'Histoire de Trois Fois Rien [1].
+Il a  également créé un spectacle de conte musical pour enfants, l'Histoire de Trois Fois Rien .
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">A deux mains, L'École des loisirs, 2000
 Trois petits pas, L'École des loisirs, 2000
